--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Epo</t>
   </si>
   <si>
     <t>Ephb4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H2">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I2">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J2">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N2">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O2">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P2">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q2">
-        <v>9.785732705905666</v>
+        <v>2.484286569728</v>
       </c>
       <c r="R2">
-        <v>88.071594353151</v>
+        <v>22.358579127552</v>
       </c>
       <c r="S2">
-        <v>0.5400950944177121</v>
+        <v>0.06657253423156677</v>
       </c>
       <c r="T2">
-        <v>0.540095094417712</v>
+        <v>0.06657253423156677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H3">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I3">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J3">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>24.944012</v>
       </c>
       <c r="O3">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P3">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q3">
-        <v>3.485518258137333</v>
+        <v>0.4304061555031111</v>
       </c>
       <c r="R3">
-        <v>31.369664323236</v>
+        <v>3.873655399528</v>
       </c>
       <c r="S3">
-        <v>0.1923730567039963</v>
+        <v>0.01153378554223924</v>
       </c>
       <c r="T3">
-        <v>0.1923730567039963</v>
+        <v>0.01153378554223924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H4">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I4">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J4">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N4">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O4">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P4">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q4">
-        <v>2.389673186409333</v>
+        <v>0.3491065198388889</v>
       </c>
       <c r="R4">
-        <v>21.507058677684</v>
+        <v>3.14195867855</v>
       </c>
       <c r="S4">
-        <v>0.1318910708098862</v>
+        <v>0.009355162977426626</v>
       </c>
       <c r="T4">
-        <v>0.1318910708098862</v>
+        <v>0.009355162977426626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.419201</v>
+        <v>0.05176466666666666</v>
       </c>
       <c r="H5">
-        <v>1.257603</v>
+        <v>0.155294</v>
       </c>
       <c r="I5">
-        <v>0.8650221929663464</v>
+        <v>0.08753647729008611</v>
       </c>
       <c r="J5">
-        <v>0.8650221929663463</v>
+        <v>0.08753647729008612</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N5">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O5">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P5">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q5">
-        <v>0.01201206492133333</v>
+        <v>0.002798570428888889</v>
       </c>
       <c r="R5">
-        <v>0.108108584292</v>
+        <v>0.02518713386</v>
       </c>
       <c r="S5">
-        <v>0.000662971034751841</v>
+        <v>7.499453885348441E-05</v>
       </c>
       <c r="T5">
-        <v>0.000662971034751841</v>
+        <v>7.499453885348442E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H6">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I6">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J6">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>23.34377233333333</v>
+        <v>47.991936</v>
       </c>
       <c r="N6">
-        <v>70.031317</v>
+        <v>143.975808</v>
       </c>
       <c r="O6">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168339</v>
       </c>
       <c r="P6">
-        <v>0.6243713731385437</v>
+        <v>0.7605119179168338</v>
       </c>
       <c r="Q6">
-        <v>1.526962835868</v>
+        <v>20.118267563136</v>
       </c>
       <c r="R6">
-        <v>13.742665522812</v>
+        <v>181.064408068224</v>
       </c>
       <c r="S6">
-        <v>0.08427627872083172</v>
+        <v>0.5391181807875454</v>
       </c>
       <c r="T6">
-        <v>0.08427627872083171</v>
+        <v>0.5391181807875453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H7">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I7">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J7">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>24.944012</v>
       </c>
       <c r="O7">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="P7">
-        <v>0.2223908915496236</v>
+        <v>0.1317597634642934</v>
       </c>
       <c r="Q7">
-        <v>0.5438792376479999</v>
+        <v>3.485518258137333</v>
       </c>
       <c r="R7">
-        <v>4.894913138832</v>
+        <v>31.369664323236</v>
       </c>
       <c r="S7">
-        <v>0.03001783484562729</v>
+        <v>0.09340298594457411</v>
       </c>
       <c r="T7">
-        <v>0.03001783484562729</v>
+        <v>0.09340298594457411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H8">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I8">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J8">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.700542666666666</v>
+        <v>6.744108333333334</v>
       </c>
       <c r="N8">
-        <v>17.101628</v>
+        <v>20.232325</v>
       </c>
       <c r="O8">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="P8">
-        <v>0.1524713144729888</v>
+        <v>0.1068715953284784</v>
       </c>
       <c r="Q8">
-        <v>0.372883896912</v>
+        <v>2.827136957441667</v>
       </c>
       <c r="R8">
-        <v>3.355955072207999</v>
+        <v>25.444232616975</v>
       </c>
       <c r="S8">
-        <v>0.02058024366310261</v>
+        <v>0.07576004884863974</v>
       </c>
       <c r="T8">
-        <v>0.0205802436631026</v>
+        <v>0.07576004884863972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.065412</v>
+        <v>0.419201</v>
       </c>
       <c r="H9">
-        <v>0.196236</v>
+        <v>1.257603</v>
       </c>
       <c r="I9">
-        <v>0.1349778070336537</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="J9">
-        <v>0.1349778070336536</v>
+        <v>0.7088885369006155</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,524 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02865466666666667</v>
+        <v>0.05406333333333333</v>
       </c>
       <c r="N9">
-        <v>0.085964</v>
+        <v>0.16219</v>
       </c>
       <c r="O9">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="P9">
-        <v>0.0007664208388438814</v>
+        <v>0.0008567232903942534</v>
       </c>
       <c r="Q9">
-        <v>0.001874359056</v>
+        <v>0.02266340339666667</v>
       </c>
       <c r="R9">
-        <v>0.016869231504</v>
+        <v>0.20397063057</v>
       </c>
       <c r="S9">
-        <v>0.0001034498040920404</v>
+        <v>0.0006073213198562634</v>
       </c>
       <c r="T9">
-        <v>0.0001034498040920404</v>
+        <v>0.0006073213198562634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.041227</v>
+      </c>
+      <c r="I10">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J10">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>47.991936</v>
+      </c>
+      <c r="N10">
+        <v>143.975808</v>
+      </c>
+      <c r="O10">
+        <v>0.7605119179168339</v>
+      </c>
+      <c r="P10">
+        <v>0.7605119179168338</v>
+      </c>
+      <c r="Q10">
+        <v>0.6595211818240001</v>
+      </c>
+      <c r="R10">
+        <v>5.935690636416</v>
+      </c>
+      <c r="S10">
+        <v>0.0176734829984726</v>
+      </c>
+      <c r="T10">
+        <v>0.01767348299847259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.041227</v>
+      </c>
+      <c r="I11">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J11">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.314670666666666</v>
+      </c>
+      <c r="N11">
+        <v>24.944012</v>
+      </c>
+      <c r="O11">
+        <v>0.1317597634642934</v>
+      </c>
+      <c r="P11">
+        <v>0.1317597634642934</v>
+      </c>
+      <c r="Q11">
+        <v>0.1142629758582222</v>
+      </c>
+      <c r="R11">
+        <v>1.028366782724</v>
+      </c>
+      <c r="S11">
+        <v>0.003061955880780308</v>
+      </c>
+      <c r="T11">
+        <v>0.003061955880780308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.041227</v>
+      </c>
+      <c r="I12">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J12">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.744108333333334</v>
+      </c>
+      <c r="N12">
+        <v>20.232325</v>
+      </c>
+      <c r="O12">
+        <v>0.1068715953284784</v>
+      </c>
+      <c r="P12">
+        <v>0.1068715953284784</v>
+      </c>
+      <c r="Q12">
+        <v>0.09267978475277779</v>
+      </c>
+      <c r="R12">
+        <v>0.8341180627750001</v>
+      </c>
+      <c r="S12">
+        <v>0.002483581491045163</v>
+      </c>
+      <c r="T12">
+        <v>0.002483581491045163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01374233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.041227</v>
+      </c>
+      <c r="I13">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="J13">
+        <v>0.02323892970261814</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05406333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.16219</v>
+      </c>
+      <c r="O13">
+        <v>0.0008567232903942534</v>
+      </c>
+      <c r="P13">
+        <v>0.0008567232903942534</v>
+      </c>
+      <c r="Q13">
+        <v>0.0007429563477777777</v>
+      </c>
+      <c r="R13">
+        <v>0.00668660713</v>
+      </c>
+      <c r="S13">
+        <v>1.990933232006776E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.990933232006776E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.319925</v>
+      </c>
+      <c r="I14">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J14">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>47.991936</v>
+      </c>
+      <c r="N14">
+        <v>143.975808</v>
+      </c>
+      <c r="O14">
+        <v>0.7605119179168339</v>
+      </c>
+      <c r="P14">
+        <v>0.7605119179168338</v>
+      </c>
+      <c r="Q14">
+        <v>5.117940041600001</v>
+      </c>
+      <c r="R14">
+        <v>46.0614603744</v>
+      </c>
+      <c r="S14">
+        <v>0.1371477198992492</v>
+      </c>
+      <c r="T14">
+        <v>0.1371477198992492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.319925</v>
+      </c>
+      <c r="I15">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J15">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.314670666666666</v>
+      </c>
+      <c r="N15">
+        <v>24.944012</v>
+      </c>
+      <c r="O15">
+        <v>0.1317597634642934</v>
+      </c>
+      <c r="P15">
+        <v>0.1317597634642934</v>
+      </c>
+      <c r="Q15">
+        <v>0.8866903376777778</v>
+      </c>
+      <c r="R15">
+        <v>7.980213039100001</v>
+      </c>
+      <c r="S15">
+        <v>0.02376103609669973</v>
+      </c>
+      <c r="T15">
+        <v>0.02376103609669973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.319925</v>
+      </c>
+      <c r="I16">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J16">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.744108333333334</v>
+      </c>
+      <c r="N16">
+        <v>20.232325</v>
+      </c>
+      <c r="O16">
+        <v>0.1068715953284784</v>
+      </c>
+      <c r="P16">
+        <v>0.1068715953284784</v>
+      </c>
+      <c r="Q16">
+        <v>0.7192029528472224</v>
+      </c>
+      <c r="R16">
+        <v>6.472826575625001</v>
+      </c>
+      <c r="S16">
+        <v>0.01927280201136692</v>
+      </c>
+      <c r="T16">
+        <v>0.01927280201136691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1066416666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.319925</v>
+      </c>
+      <c r="I17">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="J17">
+        <v>0.1803360561066803</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05406333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.16219</v>
+      </c>
+      <c r="O17">
+        <v>0.0008567232903942534</v>
+      </c>
+      <c r="P17">
+        <v>0.0008567232903942534</v>
+      </c>
+      <c r="Q17">
+        <v>0.005765403972222223</v>
+      </c>
+      <c r="R17">
+        <v>0.05188863575</v>
+      </c>
+      <c r="S17">
+        <v>0.0001544980993644378</v>
+      </c>
+      <c r="T17">
+        <v>0.0001544980993644378</v>
       </c>
     </row>
   </sheetData>
